--- a/EjercicioSemana1/Output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
+++ b/EjercicioSemana1/Output/Reporte_2020_MINISTERIO DE HACIENDA Y FINANZAS.xlsx
@@ -49,7 +49,7 @@
     <x:t>Fecha de creación</x:t>
   </x:si>
   <x:si>
-    <x:t>26-05-2021 11:32:09</x:t>
+    <x:t>31-05-2021 08:17:41</x:t>
   </x:si>
   <x:si>
     <x:t>Jurisdicción</x:t>
